--- a/Assets/123.xlsx
+++ b/Assets/123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\GGJ2025\ggj2025\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\McNulty\unity\project\GGJ2025\ggj2025\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E10C184-9FD3-47EC-8A85-4E629D2E2C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9D3071-C00A-4357-8AD8-E5548176CB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,37 +353,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2222</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/123.xlsx
+++ b/Assets/123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\McNulty\unity\project\GGJ2025\ggj2025\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\GGJ2025\ggj2025\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9D3071-C00A-4357-8AD8-E5548176CB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E5348-791D-4436-AEF4-A4EBA49090AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="28815" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,42 +353,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/123.xlsx
+++ b/Assets/123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\GGJ2025\ggj2025\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\McNulty\unity\project\GGJ2025\ggj2025\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E5348-791D-4436-AEF4-A4EBA49090AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1FD83C-AC42-4E84-9A87-AD0E4F50BC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="28815" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,57 +353,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
